--- a/Words.xlsx
+++ b/Words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MatlabWorkSpace\NJLearner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\ExVileEs-D\Programing\Python\NJPyLerner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0511EC-6AE2-422F-AEE7-CB73F801B2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24981802-6E3C-444E-BE48-D563CE384EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2432,11 +2432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="A340" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,7 +2477,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>540</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>496</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>494</v>
       </c>
@@ -2514,7 +2513,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>536</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>291</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>308</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>356</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>371</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>504</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>365</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>458</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>599</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>373</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>596</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>292</v>
       </c>
@@ -2621,7 +2620,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>328</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>294</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>311</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>366</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>378</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>469</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>585</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>569</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>566</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>520</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>479</v>
       </c>
@@ -2819,7 +2818,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>483</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>592</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>480</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>516</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>340</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>473</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>518</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>484</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>464</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>464</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>587</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>323</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>481</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>337</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>571</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>334</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>333</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>374</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -3062,7 +3061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>462</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>318</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>559</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>524</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>281</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>539</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>546</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>325</v>
       </c>
@@ -3170,7 +3169,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>476</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>526</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>553</v>
       </c>
@@ -3227,7 +3226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>446</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>450</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>493</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>380</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>550</v>
       </c>
@@ -3267,7 +3266,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>509</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>358</v>
       </c>
@@ -3283,7 +3282,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>353</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>283</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>343</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>584</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>499</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>310</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>498</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>313</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>545</v>
       </c>
@@ -3377,7 +3376,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>574</v>
       </c>
@@ -3385,7 +3384,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>591</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>372</v>
       </c>
@@ -3401,7 +3400,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>317</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>451</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>513</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>314</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>445</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>302</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>304</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>319</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>362</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>489</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>300</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>327</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>507</v>
       </c>
@@ -3571,7 +3570,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>361</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -3601,7 +3600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>329</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>588</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>581</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>495</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>468</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>347</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>287</v>
       </c>
@@ -3701,7 +3700,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>287</v>
       </c>
@@ -3709,7 +3708,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>348</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>562</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>564</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>543</v>
       </c>
@@ -3752,7 +3751,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>299</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>288</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>593</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>285</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>475</v>
       </c>
@@ -3792,7 +3791,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>598</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>488</v>
       </c>
@@ -3808,7 +3807,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>563</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>290</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>290</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>557</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>103</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>558</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>377</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>532</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>352</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>364</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>346</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>555</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>359</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>500</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>500</v>
       </c>
@@ -3961,7 +3960,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>501</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>551</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>297</v>
       </c>
@@ -4007,7 +4006,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>541</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>568</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>534</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>505</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>303</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>547</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>542</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>330</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>502</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>573</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>295</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>538</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>452</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>452</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>293</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>454</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>321</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>482</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>460</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>336</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>335</v>
       </c>
@@ -4307,7 +4306,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>301</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>339</v>
       </c>
@@ -4323,7 +4322,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>514</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>465</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>491</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>487</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>370</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>298</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>549</v>
       </c>
@@ -4434,7 +4433,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>381</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>490</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>595</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>296</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>528</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>449</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>322</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>576</v>
       </c>
@@ -4531,7 +4530,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>561</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>326</v>
       </c>
@@ -4547,7 +4546,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>463</v>
       </c>
@@ -4555,7 +4554,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>368</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>579</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>367</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>344</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>351</v>
       </c>
@@ -4606,7 +4605,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>309</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>349</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>379</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>522</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>575</v>
       </c>
@@ -4657,7 +4656,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>286</v>
       </c>
@@ -4665,7 +4664,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>355</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>485</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>544</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>320</v>
       </c>
@@ -4719,7 +4718,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>477</v>
       </c>
@@ -4727,7 +4726,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>589</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>354</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>354</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>315</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>471</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>594</v>
       </c>
@@ -4786,7 +4785,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>316</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>350</v>
       </c>
@@ -4802,7 +4801,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>530</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>583</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>552</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>570</v>
       </c>
@@ -4867,7 +4866,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>474</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>376</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>284</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>363</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>447</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>456</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>486</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>332</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>554</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>455</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>357</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>457</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>457</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>345</v>
       </c>
@@ -5001,7 +5000,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>459</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>338</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>305</v>
       </c>
@@ -5025,7 +5024,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>586</v>
       </c>
@@ -5033,7 +5032,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>577</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>307</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>448</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>282</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>289</v>
       </c>
@@ -5073,7 +5072,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>478</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>560</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>312</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>312</v>
       </c>
@@ -5116,7 +5115,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>453</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>341</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>472</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>324</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>572</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>590</v>
       </c>
@@ -5175,7 +5174,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>565</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>375</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>503</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>369</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>580</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>556</v>
       </c>
@@ -5234,7 +5233,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>444</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>567</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>360</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>360</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>306</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>331</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>578</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>511</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>597</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>582</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>497</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>492</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>466</v>
       </c>
@@ -5382,7 +5381,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>342</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>467</v>
       </c>
@@ -5398,7 +5397,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>461</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>548</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>470</v>
       </c>
@@ -5422,7 +5421,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -5435,11 +5434,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C340" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="verbs"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C340">
       <sortCondition ref="A1:A50"/>
     </sortState>
